--- a/data/indices_key_HCW.xlsx
+++ b/data/indices_key_HCW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\GitHub\Professions_classifications\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EB0A0-1A9C-447D-BA51-66CA197A7CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0EC20-FF5C-45FA-8B10-268179A6F72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B7C83AFD-075A-40AF-8ED6-0070234A00B5}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7C83AFD-075A-40AF-8ED6-0070234A00B5}"/>
   </bookViews>
   <sheets>
     <sheet name="HCW_WHO" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>ISCO</t>
   </si>
@@ -204,109 +204,31 @@
     <t>ISCO_2</t>
   </si>
   <si>
-    <t>occupation</t>
-  </si>
-  <si>
     <t>occupational_grouping</t>
   </si>
   <si>
     <t>key_occupation</t>
   </si>
   <si>
-    <t>Market-oriented skilled agricultural workers</t>
-  </si>
-  <si>
     <t>Food systems workers</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>Market-oriented skilled forestry, fishery and hunting workers</t>
-  </si>
-  <si>
-    <t>Subsistence farmers, fishers, hunters and gatherers</t>
-  </si>
-  <si>
-    <t>Agricultural, forestry and fishery labourers</t>
-  </si>
-  <si>
-    <t>Food preparation assistants</t>
-  </si>
-  <si>
-    <t>Health professionals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Health workers </t>
   </si>
   <si>
-    <t>Health associate professionals</t>
-  </si>
-  <si>
-    <t>Personal care workers</t>
-  </si>
-  <si>
-    <t>Sales workers</t>
-  </si>
-  <si>
     <t>Retail workers</t>
   </si>
   <si>
-    <t>Street and related sales and service workers</t>
-  </si>
-  <si>
-    <t>Protective services workers</t>
-  </si>
-  <si>
     <t>Security workers</t>
   </si>
   <si>
-    <t>Building and related trades workers, excluding electricians</t>
-  </si>
-  <si>
     <t>Manual workers</t>
   </si>
   <si>
-    <t>Metal, machinery and related trades workers</t>
-  </si>
-  <si>
-    <t>Handicraft and printing workers</t>
-  </si>
-  <si>
-    <t>Electrical and electronic trades workers</t>
-  </si>
-  <si>
-    <t>Food processing, wood working, garment and other craft and related trades workers</t>
-  </si>
-  <si>
-    <t>Stationary plant and machine operators</t>
-  </si>
-  <si>
-    <t>Assemblers</t>
-  </si>
-  <si>
-    <t>Labourers in mining, construction, manufacturing and transport</t>
-  </si>
-  <si>
-    <t>Cleaners and helpers</t>
-  </si>
-  <si>
     <t>Cleaning and sanitation workers</t>
-  </si>
-  <si>
-    <t>Refuse workers and other elementary workers Transport workers</t>
-  </si>
-  <si>
-    <t>Drivers and mobile plant operators Technicians and clerical workers</t>
-  </si>
-  <si>
-    <t>Science and engineering associate professionals</t>
-  </si>
-  <si>
-    <t>Other clerical support workers</t>
-  </si>
-  <si>
-    <t>Personal service workers</t>
   </si>
 </sst>
 </file>
@@ -381,11 +303,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E9B35C20-AA11-4C87-8538-F859FE2C84BC}" name="Tableau2" displayName="Tableau2" ref="A1:D26" totalsRowShown="0">
-  <autoFilter ref="A1:D26" xr:uid="{E9B35C20-AA11-4C87-8538-F859FE2C84BC}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E9B35C20-AA11-4C87-8538-F859FE2C84BC}" name="Tableau2" displayName="Tableau2" ref="A1:C26" totalsRowShown="0">
+  <autoFilter ref="A1:C26" xr:uid="{E9B35C20-AA11-4C87-8538-F859FE2C84BC}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B608FCAD-8EF9-436E-9A0B-B72AAF03A315}" name="ISCO_2"/>
-    <tableColumn id="2" xr3:uid="{D98DE041-7474-4D75-BFC7-2EAA3DC09C19}" name="occupation"/>
     <tableColumn id="3" xr3:uid="{386492CF-B9DB-44F7-9F0C-344794ED771F}" name="occupational_grouping"/>
     <tableColumn id="4" xr3:uid="{0873D929-7537-43F3-9580-CFCE76417925}" name="key_occupation"/>
   </tableColumns>
@@ -693,7 +614,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,21 +1215,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE67B7B-1699-435C-871D-7BBAE3A132F3}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1318,358 +1238,280 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
